--- a/aiurt-module-system/src/main/resources/templates/sparePartInOrderTemplate.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/sparePartInOrderTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420"/>
+    <workbookView windowWidth="24360" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="备件入库导入模板" sheetId="1" r:id="rId1"/>
@@ -683,23 +683,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1024,54 +1027,55 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="E10" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="15.25" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="4" width="16" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" ht="153" customHeight="1" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>7</v>
       </c>
     </row>

--- a/aiurt-module-system/src/main/resources/templates/sparePartInOrderTemplate.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/sparePartInOrderTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24360" windowHeight="11160"/>
+    <workbookView windowWidth="25290" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="备件入库导入模板" sheetId="1" r:id="rId1"/>
@@ -1027,7 +1027,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
